--- a/data/trans_orig/IP74A6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP74A6_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A5C2DA-0EF6-4071-9C6A-B1B599CEC71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02926562-2D47-4394-8A4E-1E35D8DE1D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63D2CAB8-DD6E-41E0-A855-9C305413AC65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FFC1886-0F43-4AC0-9E5E-73E57634C7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,10 +110,10 @@
     <t>40,92%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>49,66%</t>
@@ -125,10 +125,10 @@
     <t>59,08%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -137,43 +137,43 @@
     <t>75,07%</t>
   </si>
   <si>
-    <t>20,13%</t>
+    <t>23,0%</t>
   </si>
   <si>
     <t>60,81%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>15,75%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>79,87%</t>
+    <t>77,0%</t>
   </si>
   <si>
     <t>39,19%</t>
   </si>
   <si>
-    <t>84,62%</t>
+    <t>84,25%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A27FBD2-2B4A-4DC4-9E2B-49BD7B0F5483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06819B2C-59FB-4FE8-A44F-16E7C218DB00}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP74A6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP74A6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02926562-2D47-4394-8A4E-1E35D8DE1D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{907E4E8A-C771-49B0-A000-6B64D0CF48EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FFC1886-0F43-4AC0-9E5E-73E57634C7FA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C24E7E4-4EA2-4A1D-862C-9D14134790A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
-  <si>
-    <t>Adulto según si ha resuelto los pagos de recibos en 2023 (Tasa respuesta: 0,52%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+  <si>
+    <t>Adulto según si ha resuelto los pagos de recibos en 2023 (Tasa respuesta: 9,17%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,109 +71,217 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>17,78%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -588,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06819B2C-59FB-4FE8-A44F-16E7C218DB00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA0F4C9-6658-4425-9BCE-0B62B6D8C0A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -706,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>586</v>
+        <v>6947</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -721,85 +829,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>656</v>
+        <v>10085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>1242</v>
+        <v>17032</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4344</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -808,153 +916,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>586</v>
+        <v>9331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>656</v>
+        <v>14429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>1242</v>
+        <v>23760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>740</v>
+        <v>36777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>391</v>
+        <v>42388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="N7" s="7">
-        <v>1130</v>
+        <v>79165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6324</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4190</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>729</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>902</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
       <c r="N8" s="7">
-        <v>1632</v>
+        <v>10514</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -963,123 +1071,123 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7">
-        <v>1469</v>
+        <v>43101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>1293</v>
+        <v>46578</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="N9" s="7">
-        <v>2762</v>
+        <v>89679</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>872</v>
+        <v>5524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>354</v>
+        <v>5265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>1226</v>
+        <v>10790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1088,28 +1196,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1118,49 +1226,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>872</v>
+        <v>5688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>354</v>
+        <v>5265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>1226</v>
+        <v>10954</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1171,100 +1279,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>2197</v>
+        <v>49248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>1400</v>
+        <v>57738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="N13" s="7">
-        <v>3597</v>
+        <v>106986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
       <c r="D14" s="7">
-        <v>730</v>
+        <v>8872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>902</v>
+        <v>8535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>1632</v>
+        <v>17407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1273,54 +1381,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>2927</v>
+        <v>58120</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>2302</v>
+        <v>66273</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="N15" s="7">
-        <v>5229</v>
+        <v>124393</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
